--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Icam4-Itgb3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Icam4-Itgb3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,9 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Itgb3</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.9688906666666667</v>
+        <v>0.7709829999999999</v>
       </c>
       <c r="H2">
-        <v>2.906672</v>
+        <v>2.312949</v>
       </c>
       <c r="I2">
-        <v>0.2030926387205187</v>
+        <v>0.1957948716950263</v>
       </c>
       <c r="J2">
-        <v>0.2030926387205187</v>
+        <v>0.1962315083994536</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.768074</v>
+        <v>6.712486666666666</v>
       </c>
       <c r="N2">
-        <v>14.304222</v>
+        <v>20.13746</v>
       </c>
       <c r="O2">
-        <v>0.5213599352042467</v>
+        <v>0.6330487633990675</v>
       </c>
       <c r="P2">
-        <v>0.5361472681932758</v>
+        <v>0.6414503882251803</v>
       </c>
       <c r="Q2">
-        <v>4.619742396576</v>
+        <v>5.175213107726665</v>
       </c>
       <c r="R2">
-        <v>41.577681569184</v>
+        <v>46.57691796953998</v>
       </c>
       <c r="S2">
-        <v>0.1058843649637891</v>
+        <v>0.1239477014064155</v>
       </c>
       <c r="T2">
-        <v>0.10888756344017</v>
+        <v>0.1258727772448423</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.9688906666666667</v>
+        <v>0.7709829999999999</v>
       </c>
       <c r="H3">
-        <v>2.906672</v>
+        <v>2.312949</v>
       </c>
       <c r="I3">
-        <v>0.2030926387205187</v>
+        <v>0.1957948716950263</v>
       </c>
       <c r="J3">
-        <v>0.2030926387205187</v>
+        <v>0.1962315083994536</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>9.248556000000001</v>
       </c>
       <c r="O3">
-        <v>0.3370911439219028</v>
+        <v>0.290741083484562</v>
       </c>
       <c r="P3">
-        <v>0.3466520607784562</v>
+        <v>0.2945997080427384</v>
       </c>
       <c r="Q3">
-        <v>2.986946529514667</v>
+        <v>2.376826483516</v>
       </c>
       <c r="R3">
-        <v>26.882518765632</v>
+        <v>21.391438351644</v>
       </c>
       <c r="S3">
-        <v>0.06846072990841738</v>
+        <v>0.05692561313733273</v>
       </c>
       <c r="T3">
-        <v>0.0704024817414023</v>
+        <v>0.0578097450832652</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.9688906666666667</v>
+        <v>0.7709829999999999</v>
       </c>
       <c r="H4">
-        <v>2.906672</v>
+        <v>2.312949</v>
       </c>
       <c r="I4">
-        <v>0.2030926387205187</v>
+        <v>0.1957948716950263</v>
       </c>
       <c r="J4">
-        <v>0.2030926387205187</v>
+        <v>0.1962315083994536</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.1813516666666667</v>
+        <v>0.2495096666666667</v>
       </c>
       <c r="N4">
-        <v>0.544055</v>
+        <v>0.748529</v>
       </c>
       <c r="O4">
-        <v>0.01982970339439268</v>
+        <v>0.02353103905946135</v>
       </c>
       <c r="P4">
-        <v>0.02039213331538707</v>
+        <v>0.02384333563656022</v>
       </c>
       <c r="Q4">
-        <v>0.1757099372177778</v>
+        <v>0.1923677113356666</v>
       </c>
       <c r="R4">
-        <v>1.58138943496</v>
+        <v>1.731309402021</v>
       </c>
       <c r="S4">
-        <v>0.004027266787412436</v>
+        <v>0.004607256773497887</v>
       </c>
       <c r="T4">
-        <v>0.00414149216416256</v>
+        <v>0.00467881371723666</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.9688906666666667</v>
+        <v>0.7709829999999999</v>
       </c>
       <c r="H5">
-        <v>2.906672</v>
+        <v>2.312949</v>
       </c>
       <c r="I5">
-        <v>0.2030926387205187</v>
+        <v>0.1957948716950263</v>
       </c>
       <c r="J5">
-        <v>0.2030926387205187</v>
+        <v>0.1962315083994536</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.756715</v>
+        <v>0.4166465</v>
       </c>
       <c r="N5">
-        <v>1.51343</v>
+        <v>0.8332930000000001</v>
       </c>
       <c r="O5">
-        <v>0.08274218969086503</v>
+        <v>0.03929356804674715</v>
       </c>
       <c r="P5">
-        <v>0.05672600439938288</v>
+        <v>0.02654337331298611</v>
       </c>
       <c r="Q5">
-        <v>0.7331741008266667</v>
+        <v>0.3212273685095</v>
       </c>
       <c r="R5">
-        <v>4.39904460496</v>
+        <v>1.927364211057</v>
       </c>
       <c r="S5">
-        <v>0.01680432963783148</v>
+        <v>0.007693479114152642</v>
       </c>
       <c r="T5">
-        <v>0.01152063391754242</v>
+        <v>0.005208646183217067</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,14 +773,14 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.9688906666666667</v>
+        <v>0.7709829999999999</v>
       </c>
       <c r="H6">
-        <v>2.906672</v>
+        <v>2.312949</v>
       </c>
       <c r="I6">
-        <v>0.2030926387205187</v>
+        <v>0.1957948716950263</v>
       </c>
       <c r="J6">
-        <v>0.2030926387205187</v>
+        <v>0.1962315083994536</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.3564626666666666</v>
+        <v>0.1419326666666667</v>
       </c>
       <c r="N6">
-        <v>1.069388</v>
+        <v>0.425798</v>
       </c>
       <c r="O6">
-        <v>0.0389770277885927</v>
+        <v>0.01338554601016197</v>
       </c>
       <c r="P6">
-        <v>0.04008253331349799</v>
+        <v>0.01356319478253491</v>
       </c>
       <c r="Q6">
-        <v>0.3453733507484444</v>
+        <v>0.1094276731446667</v>
       </c>
       <c r="R6">
-        <v>3.108360156736</v>
+        <v>0.9848490583019999</v>
       </c>
       <c r="S6">
-        <v>0.007915947423068276</v>
+        <v>0.002620821263627533</v>
       </c>
       <c r="T6">
-        <v>0.008140467457241403</v>
+        <v>0.002661526170892424</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>3.495231</v>
       </c>
       <c r="I7">
-        <v>0.2442159578816452</v>
+        <v>0.29587695413495</v>
       </c>
       <c r="J7">
-        <v>0.2442159578816452</v>
+        <v>0.29653678111127</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.768074</v>
+        <v>6.712486666666666</v>
       </c>
       <c r="N7">
-        <v>14.304222</v>
+        <v>20.13746</v>
       </c>
       <c r="O7">
-        <v>0.5213599352042467</v>
+        <v>0.6330487633990675</v>
       </c>
       <c r="P7">
-        <v>0.5361472681932758</v>
+        <v>0.6414503882251803</v>
       </c>
       <c r="Q7">
-        <v>5.555173351698</v>
+        <v>7.820563828139998</v>
       </c>
       <c r="R7">
-        <v>49.99656016528201</v>
+        <v>70.38507445325999</v>
       </c>
       <c r="S7">
-        <v>0.1273244159770176</v>
+        <v>0.1873045399334127</v>
       </c>
       <c r="T7">
-        <v>0.1309357186674482</v>
+        <v>0.1902136333668695</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>3.495231</v>
       </c>
       <c r="I8">
-        <v>0.2442159578816452</v>
+        <v>0.29587695413495</v>
       </c>
       <c r="J8">
-        <v>0.2442159578816452</v>
+        <v>0.29653678111127</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>9.248556000000001</v>
       </c>
       <c r="O8">
-        <v>0.3370911439219028</v>
+        <v>0.290741083484562</v>
       </c>
       <c r="P8">
-        <v>0.3466520607784562</v>
+        <v>0.2945997080427384</v>
       </c>
       <c r="Q8">
         <v>3.591759959604</v>
@@ -948,10 +948,10 @@
         <v>32.325839636436</v>
       </c>
       <c r="S8">
-        <v>0.08232303660630701</v>
+        <v>0.0860235862233074</v>
       </c>
       <c r="T8">
-        <v>0.08465796507465696</v>
+        <v>0.08735964913931357</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,10 +959,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
@@ -980,10 +980,10 @@
         <v>3.495231</v>
       </c>
       <c r="I9">
-        <v>0.2442159578816452</v>
+        <v>0.29587695413495</v>
       </c>
       <c r="J9">
-        <v>0.2442159578816452</v>
+        <v>0.29653678111127</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.1813516666666667</v>
+        <v>0.2495096666666667</v>
       </c>
       <c r="N9">
-        <v>0.544055</v>
+        <v>0.748529</v>
       </c>
       <c r="O9">
-        <v>0.01982970339439268</v>
+        <v>0.02353103905946135</v>
       </c>
       <c r="P9">
-        <v>0.02039213331538707</v>
+        <v>0.02384333563656022</v>
       </c>
       <c r="Q9">
-        <v>0.211288655745</v>
+        <v>0.290697973911</v>
       </c>
       <c r="R9">
-        <v>1.901597901705</v>
+        <v>2.616281765199</v>
       </c>
       <c r="S9">
-        <v>0.00484273000897052</v>
+        <v>0.006962292164543963</v>
       </c>
       <c r="T9">
-        <v>0.004980084370867462</v>
+        <v>0.007070426000621203</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1042,10 +1042,10 @@
         <v>3.495231</v>
       </c>
       <c r="I10">
-        <v>0.2442159578816452</v>
+        <v>0.29587695413495</v>
       </c>
       <c r="J10">
-        <v>0.2442159578816452</v>
+        <v>0.29653678111127</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.756715</v>
+        <v>0.4166465</v>
       </c>
       <c r="N10">
-        <v>1.51343</v>
+        <v>0.8332930000000001</v>
       </c>
       <c r="O10">
-        <v>0.08274218969086503</v>
+        <v>0.03929356804674715</v>
       </c>
       <c r="P10">
-        <v>0.05672600439938288</v>
+        <v>0.02654337331298611</v>
       </c>
       <c r="Q10">
-        <v>0.881631242055</v>
+        <v>0.4854252542805</v>
       </c>
       <c r="R10">
-        <v>5.289787452330001</v>
+        <v>2.912551525683</v>
       </c>
       <c r="S10">
-        <v>0.02020696311257939</v>
+        <v>0.01162606123076594</v>
       </c>
       <c r="T10">
-        <v>0.01385339550119371</v>
+        <v>0.007871086482067689</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,40 +1104,40 @@
         <v>3.495231</v>
       </c>
       <c r="I11">
-        <v>0.2442159578816452</v>
+        <v>0.29587695413495</v>
       </c>
       <c r="J11">
-        <v>0.2442159578816452</v>
+        <v>0.29653678111127</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.3564626666666666</v>
+        <v>0.1419326666666667</v>
       </c>
       <c r="N11">
-        <v>1.069388</v>
+        <v>0.425798</v>
       </c>
       <c r="O11">
-        <v>0.0389770277885927</v>
+        <v>0.01338554601016197</v>
       </c>
       <c r="P11">
-        <v>0.04008253331349799</v>
+        <v>0.01356319478253491</v>
       </c>
       <c r="Q11">
-        <v>0.415306454292</v>
+        <v>0.165362485482</v>
       </c>
       <c r="R11">
-        <v>3.737758088628</v>
+        <v>1.488262369338</v>
       </c>
       <c r="S11">
-        <v>0.009518812176770669</v>
+        <v>0.003960474582919955</v>
       </c>
       <c r="T11">
-        <v>0.009788794267478865</v>
+        <v>0.004021986122398073</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.360828666666666</v>
+        <v>1.204549666666667</v>
       </c>
       <c r="H12">
-        <v>4.082485999999999</v>
+        <v>3.613649000000001</v>
       </c>
       <c r="I12">
-        <v>0.2852481650078081</v>
+        <v>0.3059012292557511</v>
       </c>
       <c r="J12">
-        <v>0.2852481650078081</v>
+        <v>0.306583411089556</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.768074</v>
+        <v>6.712486666666666</v>
       </c>
       <c r="N12">
-        <v>14.304222</v>
+        <v>20.13746</v>
       </c>
       <c r="O12">
-        <v>0.5213599352042467</v>
+        <v>0.6330487633990675</v>
       </c>
       <c r="P12">
-        <v>0.5361472681932758</v>
+        <v>0.6414503882251803</v>
       </c>
       <c r="Q12">
-        <v>6.488531783988</v>
+        <v>8.085523576837778</v>
       </c>
       <c r="R12">
-        <v>58.39678605589199</v>
+        <v>72.76971219153999</v>
       </c>
       <c r="S12">
-        <v>0.1487169648256011</v>
+        <v>0.1936503949026079</v>
       </c>
       <c r="T12">
-        <v>0.1529350244260811</v>
+        <v>0.1966580480667957</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.360828666666666</v>
+        <v>1.204549666666667</v>
       </c>
       <c r="H13">
-        <v>4.082485999999999</v>
+        <v>3.613649000000001</v>
       </c>
       <c r="I13">
-        <v>0.2852481650078081</v>
+        <v>0.3059012292557511</v>
       </c>
       <c r="J13">
-        <v>0.2852481650078081</v>
+        <v>0.306583411089556</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>9.248556000000001</v>
       </c>
       <c r="O13">
-        <v>0.3370911439219028</v>
+        <v>0.290741083484562</v>
       </c>
       <c r="P13">
-        <v>0.3466520607784562</v>
+        <v>0.2945997080427384</v>
       </c>
       <c r="Q13">
-        <v>4.195233376690666</v>
+        <v>3.713448348982668</v>
       </c>
       <c r="R13">
-        <v>37.757100390216</v>
+        <v>33.421035140844</v>
       </c>
       <c r="S13">
-        <v>0.09615463024410573</v>
+        <v>0.08893805483307646</v>
       </c>
       <c r="T13">
-        <v>0.09888186423322978</v>
+        <v>0.09031938339773005</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,10 +1269,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.360828666666666</v>
+        <v>1.204549666666667</v>
       </c>
       <c r="H14">
-        <v>4.082485999999999</v>
+        <v>3.613649000000001</v>
       </c>
       <c r="I14">
-        <v>0.2852481650078081</v>
+        <v>0.3059012292557511</v>
       </c>
       <c r="J14">
-        <v>0.2852481650078081</v>
+        <v>0.306583411089556</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.1813516666666667</v>
+        <v>0.2495096666666667</v>
       </c>
       <c r="N14">
-        <v>0.544055</v>
+        <v>0.748529</v>
       </c>
       <c r="O14">
-        <v>0.01982970339439268</v>
+        <v>0.02353103905946135</v>
       </c>
       <c r="P14">
-        <v>0.02039213331538707</v>
+        <v>0.02384333563656022</v>
       </c>
       <c r="Q14">
-        <v>0.2467885467477777</v>
+        <v>0.3005467858134445</v>
       </c>
       <c r="R14">
-        <v>2.22109692073</v>
+        <v>2.704921072321</v>
       </c>
       <c r="S14">
-        <v>0.005656386505899616</v>
+        <v>0.00719817377395432</v>
       </c>
       <c r="T14">
-        <v>0.00581681860880875</v>
+        <v>0.007309971171209803</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,13 +1331,13 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.360828666666666</v>
+        <v>1.204549666666667</v>
       </c>
       <c r="H15">
-        <v>4.082485999999999</v>
+        <v>3.613649000000001</v>
       </c>
       <c r="I15">
-        <v>0.2852481650078081</v>
+        <v>0.3059012292557511</v>
       </c>
       <c r="J15">
-        <v>0.2852481650078081</v>
+        <v>0.306583411089556</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.756715</v>
+        <v>0.4166465</v>
       </c>
       <c r="N15">
-        <v>1.51343</v>
+        <v>0.8332930000000001</v>
       </c>
       <c r="O15">
-        <v>0.08274218969086503</v>
+        <v>0.03929356804674715</v>
       </c>
       <c r="P15">
-        <v>0.05672600439938288</v>
+        <v>0.02654337331298611</v>
       </c>
       <c r="Q15">
-        <v>1.029759464496667</v>
+        <v>0.5018714026928335</v>
       </c>
       <c r="R15">
-        <v>6.178556786979999</v>
+        <v>3.011228416157001</v>
       </c>
       <c r="S15">
-        <v>0.02360205777804723</v>
+        <v>0.01201995076734446</v>
       </c>
       <c r="T15">
-        <v>0.01618098866314881</v>
+        <v>0.008137757932118772</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,14 +1393,14 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
         <v>3</v>
       </c>
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.360828666666666</v>
+        <v>1.204549666666667</v>
       </c>
       <c r="H16">
-        <v>4.082485999999999</v>
+        <v>3.613649000000001</v>
       </c>
       <c r="I16">
-        <v>0.2852481650078081</v>
+        <v>0.3059012292557511</v>
       </c>
       <c r="J16">
-        <v>0.2852481650078081</v>
+        <v>0.306583411089556</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.3564626666666666</v>
+        <v>0.1419326666666667</v>
       </c>
       <c r="N16">
-        <v>1.069388</v>
+        <v>0.425798</v>
       </c>
       <c r="O16">
-        <v>0.0389770277885927</v>
+        <v>0.01338554601016197</v>
       </c>
       <c r="P16">
-        <v>0.04008253331349799</v>
+        <v>0.01356319478253491</v>
       </c>
       <c r="Q16">
-        <v>0.4850846153964444</v>
+        <v>0.1709649463224445</v>
       </c>
       <c r="R16">
-        <v>4.365761538567999</v>
+        <v>1.538684516902</v>
       </c>
       <c r="S16">
-        <v>0.01111812565415441</v>
+        <v>0.00409465497876796</v>
       </c>
       <c r="T16">
-        <v>0.01143346907653964</v>
+        <v>0.00415825052170162</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,31 +1455,31 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G17">
-        <v>1.275887</v>
+        <v>0.0262855</v>
       </c>
       <c r="H17">
-        <v>3.827661</v>
+        <v>0.052571</v>
       </c>
       <c r="I17">
-        <v>0.267443238390028</v>
+        <v>0.006675330195269693</v>
       </c>
       <c r="J17">
-        <v>0.267443238390028</v>
+        <v>0.004460144442470491</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.768074</v>
+        <v>6.712486666666666</v>
       </c>
       <c r="N17">
-        <v>14.304222</v>
+        <v>20.13746</v>
       </c>
       <c r="O17">
-        <v>0.5213599352042467</v>
+        <v>0.6330487633990675</v>
       </c>
       <c r="P17">
-        <v>0.5361472681932758</v>
+        <v>0.6414503882251803</v>
       </c>
       <c r="Q17">
-        <v>6.083523631638</v>
+        <v>0.1764410682766666</v>
       </c>
       <c r="R17">
-        <v>54.751712684742</v>
+        <v>1.05864640966</v>
       </c>
       <c r="S17">
-        <v>0.1394341894378389</v>
+        <v>0.004225809525395935</v>
       </c>
       <c r="T17">
-        <v>0.1433889616595765</v>
+        <v>0.002860961384163077</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,31 +1517,31 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G18">
-        <v>1.275887</v>
+        <v>0.0262855</v>
       </c>
       <c r="H18">
-        <v>3.827661</v>
+        <v>0.052571</v>
       </c>
       <c r="I18">
-        <v>0.267443238390028</v>
+        <v>0.006675330195269693</v>
       </c>
       <c r="J18">
-        <v>0.267443238390028</v>
+        <v>0.004460144442470491</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>9.248556000000001</v>
       </c>
       <c r="O18">
-        <v>0.3370911439219028</v>
+        <v>0.290741083484562</v>
       </c>
       <c r="P18">
-        <v>0.3466520607784562</v>
+        <v>0.2945997080427384</v>
       </c>
       <c r="Q18">
-        <v>3.933370789724</v>
+        <v>0.08103430624600001</v>
       </c>
       <c r="R18">
-        <v>35.400337107516</v>
+        <v>0.486205837476</v>
       </c>
       <c r="S18">
-        <v>0.09015274716307269</v>
+        <v>0.001940792733589923</v>
       </c>
       <c r="T18">
-        <v>0.09270974972916712</v>
+        <v>0.001313957250580249</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,31 +1579,31 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G19">
-        <v>1.275887</v>
+        <v>0.0262855</v>
       </c>
       <c r="H19">
-        <v>3.827661</v>
+        <v>0.052571</v>
       </c>
       <c r="I19">
-        <v>0.267443238390028</v>
+        <v>0.006675330195269693</v>
       </c>
       <c r="J19">
-        <v>0.267443238390028</v>
+        <v>0.004460144442470491</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.1813516666666667</v>
+        <v>0.2495096666666667</v>
       </c>
       <c r="N19">
-        <v>0.544055</v>
+        <v>0.748529</v>
       </c>
       <c r="O19">
-        <v>0.01982970339439268</v>
+        <v>0.02353103905946135</v>
       </c>
       <c r="P19">
-        <v>0.02039213331538707</v>
+        <v>0.02384333563656022</v>
       </c>
       <c r="Q19">
-        <v>0.2313842339283333</v>
+        <v>0.006558486343166667</v>
       </c>
       <c r="R19">
-        <v>2.082458105355</v>
+        <v>0.039350918059</v>
       </c>
       <c r="S19">
-        <v>0.00530332009211011</v>
+        <v>0.0001570774555596929</v>
       </c>
       <c r="T19">
-        <v>0.005453738171548295</v>
+        <v>0.0001063447209293627</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,31 +1641,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G20">
-        <v>1.275887</v>
+        <v>0.0262855</v>
       </c>
       <c r="H20">
-        <v>3.827661</v>
+        <v>0.052571</v>
       </c>
       <c r="I20">
-        <v>0.267443238390028</v>
+        <v>0.006675330195269693</v>
       </c>
       <c r="J20">
-        <v>0.267443238390028</v>
+        <v>0.004460144442470491</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.756715</v>
+        <v>0.4166465</v>
       </c>
       <c r="N20">
-        <v>1.51343</v>
+        <v>0.8332930000000001</v>
       </c>
       <c r="O20">
-        <v>0.08274218969086503</v>
+        <v>0.03929356804674715</v>
       </c>
       <c r="P20">
-        <v>0.05672600439938288</v>
+        <v>0.02654337331298611</v>
       </c>
       <c r="Q20">
-        <v>0.965482831205</v>
+        <v>0.01095176157575</v>
       </c>
       <c r="R20">
-        <v>5.79289698723</v>
+        <v>0.043807046303</v>
       </c>
       <c r="S20">
-        <v>0.02212883916240694</v>
+        <v>0.0002622975412623356</v>
       </c>
       <c r="T20">
-        <v>0.01517098631749793</v>
+        <v>0.0001183872789663345</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1703,371 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.5</v>
+      </c>
+      <c r="G21">
+        <v>0.0262855</v>
+      </c>
+      <c r="H21">
+        <v>0.052571</v>
+      </c>
+      <c r="I21">
+        <v>0.006675330195269693</v>
+      </c>
+      <c r="J21">
+        <v>0.004460144442470491</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M21">
+        <v>0.1419326666666667</v>
+      </c>
+      <c r="N21">
+        <v>0.425798</v>
+      </c>
+      <c r="O21">
+        <v>0.01338554601016197</v>
+      </c>
+      <c r="P21">
+        <v>0.01356319478253491</v>
+      </c>
+      <c r="Q21">
+        <v>0.003730771109666667</v>
+      </c>
+      <c r="R21">
+        <v>0.022384626658</v>
+      </c>
+      <c r="S21">
+        <v>8.935293946180594E-05</v>
+      </c>
+      <c r="T21">
+        <v>6.049380783146781E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.7708126666666667</v>
+      </c>
+      <c r="H22">
+        <v>2.312438</v>
+      </c>
+      <c r="I22">
+        <v>0.195751614719003</v>
+      </c>
+      <c r="J22">
+        <v>0.1961881549572498</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>6.712486666666666</v>
+      </c>
+      <c r="N22">
+        <v>20.13746</v>
+      </c>
+      <c r="O22">
+        <v>0.6330487633990675</v>
+      </c>
+      <c r="P22">
+        <v>0.6414503882251803</v>
+      </c>
+      <c r="Q22">
+        <v>5.174069747497778</v>
+      </c>
+      <c r="R22">
+        <v>46.56662772748</v>
+      </c>
+      <c r="S22">
+        <v>0.1239203176312355</v>
+      </c>
+      <c r="T22">
+        <v>0.1258449681625097</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.7708126666666667</v>
+      </c>
+      <c r="H23">
+        <v>2.312438</v>
+      </c>
+      <c r="I23">
+        <v>0.195751614719003</v>
+      </c>
+      <c r="J23">
+        <v>0.1961881549572498</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>3.082852</v>
+      </c>
+      <c r="N23">
+        <v>9.248556000000001</v>
+      </c>
+      <c r="O23">
+        <v>0.290741083484562</v>
+      </c>
+      <c r="P23">
+        <v>0.2945997080427384</v>
+      </c>
+      <c r="Q23">
+        <v>2.376301371058667</v>
+      </c>
+      <c r="R23">
+        <v>21.386712339528</v>
+      </c>
+      <c r="S23">
+        <v>0.05691303655725546</v>
+      </c>
+      <c r="T23">
+        <v>0.0577969731718493</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.7708126666666667</v>
+      </c>
+      <c r="H24">
+        <v>2.312438</v>
+      </c>
+      <c r="I24">
+        <v>0.195751614719003</v>
+      </c>
+      <c r="J24">
+        <v>0.1961881549572498</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.2495096666666667</v>
+      </c>
+      <c r="N24">
+        <v>0.748529</v>
+      </c>
+      <c r="O24">
+        <v>0.02353103905946135</v>
+      </c>
+      <c r="P24">
+        <v>0.02384333563656022</v>
+      </c>
+      <c r="Q24">
+        <v>0.1923252115224444</v>
+      </c>
+      <c r="R24">
+        <v>1.730926903702</v>
+      </c>
+      <c r="S24">
+        <v>0.004606238891905489</v>
+      </c>
+      <c r="T24">
+        <v>0.004677780026563193</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>1.275887</v>
-      </c>
-      <c r="H21">
-        <v>3.827661</v>
-      </c>
-      <c r="I21">
-        <v>0.267443238390028</v>
-      </c>
-      <c r="J21">
-        <v>0.267443238390028</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>0.3564626666666666</v>
-      </c>
-      <c r="N21">
-        <v>1.069388</v>
-      </c>
-      <c r="O21">
-        <v>0.0389770277885927</v>
-      </c>
-      <c r="P21">
-        <v>0.04008253331349799</v>
-      </c>
-      <c r="Q21">
-        <v>0.4548060823853333</v>
-      </c>
-      <c r="R21">
-        <v>4.093254741468</v>
-      </c>
-      <c r="S21">
-        <v>0.01042414253459934</v>
-      </c>
-      <c r="T21">
-        <v>0.01071980251223808</v>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.7708126666666667</v>
+      </c>
+      <c r="H25">
+        <v>2.312438</v>
+      </c>
+      <c r="I25">
+        <v>0.195751614719003</v>
+      </c>
+      <c r="J25">
+        <v>0.1961881549572498</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.4166465</v>
+      </c>
+      <c r="N25">
+        <v>0.8332930000000001</v>
+      </c>
+      <c r="O25">
+        <v>0.03929356804674715</v>
+      </c>
+      <c r="P25">
+        <v>0.02654337331298611</v>
+      </c>
+      <c r="Q25">
+        <v>0.3211563997223334</v>
+      </c>
+      <c r="R25">
+        <v>1.926938398334</v>
+      </c>
+      <c r="S25">
+        <v>0.007691779393221775</v>
+      </c>
+      <c r="T25">
+        <v>0.005207495436616248</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.7708126666666667</v>
+      </c>
+      <c r="H26">
+        <v>2.312438</v>
+      </c>
+      <c r="I26">
+        <v>0.195751614719003</v>
+      </c>
+      <c r="J26">
+        <v>0.1961881549572498</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M26">
+        <v>0.1419326666666667</v>
+      </c>
+      <c r="N26">
+        <v>0.425798</v>
+      </c>
+      <c r="O26">
+        <v>0.01338554601016197</v>
+      </c>
+      <c r="P26">
+        <v>0.01356319478253491</v>
+      </c>
+      <c r="Q26">
+        <v>0.1094034972804445</v>
+      </c>
+      <c r="R26">
+        <v>0.9846314755240001</v>
+      </c>
+      <c r="S26">
+        <v>0.002620242245384713</v>
+      </c>
+      <c r="T26">
+        <v>0.00266093815971132</v>
       </c>
     </row>
   </sheetData>
